--- a/StructureDefinition-FHIRMedList.xlsx
+++ b/StructureDefinition-FHIRMedList.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:02:38+00:00</t>
+    <t>2023-03-05T16:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1291,12 +1291,6 @@
   </si>
   <si>
     <t>Bundle.entry:treatment.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:treatmentOrder</t>
-  </si>
-  <si>
-    <t>treatmentOrder</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1624,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN178"/>
+  <dimension ref="A1:AN177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1635,7 +1629,7 @@
   <cols>
     <col min="1" max="1" width="52.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.1015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -21621,11 +21615,9 @@
         <v>408</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
         <v>75</v>
       </c>
@@ -21634,7 +21626,7 @@
         <v>76</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>75</v>
@@ -21646,16 +21638,20 @@
         <v>85</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>142</v>
+        <v>409</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P177" t="s" s="2">
         <v>75</v>
       </c>
@@ -21703,19 +21699,19 @@
         <v>75</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>75</v>
@@ -21727,122 +21723,6 @@
         <v>75</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q178" s="2"/>
-      <c r="R178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN178" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-FHIRMedList.xlsx
+++ b/StructureDefinition-FHIRMedList.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:12:02+00:00</t>
+    <t>2023-03-06T10:41:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FHIRMedList.xlsx
+++ b/StructureDefinition-FHIRMedList.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:41:52+00:00</t>
+    <t>2023-03-07T20:58:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
